--- a/List.xlsx
+++ b/List.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Discounter\Liu_Boss\Group\Algorithm\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Program Files\GitHub\collect_papers\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DB44B213-1CDA-4EE8-8099-7B678A3E0DA5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{982B1307-2306-4D1B-ACA9-91DE59D95EF7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{4D443B47-F3F6-4264-A8BF-6727D758EDE2}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="66">
   <si>
     <t>Inverse optimization</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -225,6 +225,34 @@
   </si>
   <si>
     <t>Linear Optimization</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宣洪伟</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李振东</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吴振宇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘许成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>于成成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>勾笑盈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>谭政</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -289,7 +317,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -298,6 +326,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -613,297 +644,505 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15FECB23-A05B-4B8F-B1C6-5DD2BEB55183}">
-  <dimension ref="A1:B101"/>
+  <dimension ref="A1:C101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="A57" sqref="A57"/>
+    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="A89" sqref="A89:A101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="39.77734375" customWidth="1"/>
+    <col min="2" max="2" width="27.109375" customWidth="1"/>
+    <col min="3" max="3" width="30.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="3"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="3"/>
+      <c r="B3" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="3"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="3"/>
+      <c r="B5" t="s">
         <v>2</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="3"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="3"/>
+      <c r="B7" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="3"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="3"/>
+      <c r="B9" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="3"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="3"/>
+      <c r="B11" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="3"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="3"/>
+      <c r="B13" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="3"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="3"/>
+      <c r="B15" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B17" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="3"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="3"/>
+      <c r="B19" t="s">
         <v>10</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="C19" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="3"/>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="3"/>
+      <c r="B21" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="3"/>
+    </row>
+    <row r="23" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A23" s="3"/>
+      <c r="B23" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="3"/>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="3"/>
+      <c r="B25" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="3"/>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="3"/>
+      <c r="B27" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="3"/>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="3"/>
+      <c r="B29" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="3"/>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="3"/>
+      <c r="B31" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B33" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="3"/>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="3"/>
+      <c r="B35" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="3"/>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" s="3"/>
+      <c r="B37" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" s="3"/>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" s="3"/>
+      <c r="B39" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" s="3"/>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" s="3"/>
+      <c r="B41" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" s="3"/>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" s="3"/>
+      <c r="B43" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" s="3"/>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" s="3"/>
+      <c r="B45" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B47" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" s="3"/>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" s="3"/>
+      <c r="B49" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" s="3"/>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" s="3"/>
+      <c r="B51" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" s="3"/>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" s="3"/>
+      <c r="B53" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" s="3"/>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" s="3"/>
+      <c r="B55" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" s="3"/>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" s="3"/>
+      <c r="B57" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" s="3"/>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" s="3"/>
+      <c r="B59" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B61" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" s="3"/>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63" s="3"/>
+      <c r="B63" t="s">
         <v>32</v>
       </c>
-      <c r="B63" s="1" t="s">
+      <c r="C63" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64" s="3"/>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65" s="3"/>
+      <c r="B65" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66" s="3"/>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67" s="3"/>
+      <c r="B67" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A68" s="3"/>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A69" s="3"/>
+      <c r="B69" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A70" s="3"/>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A71" s="3"/>
+      <c r="B71" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A72" s="3"/>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A73" s="3"/>
+      <c r="B73" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A75" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B75" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A77" t="s">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A76" s="3"/>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A77" s="3"/>
+      <c r="B77" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A79" t="s">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A78" s="3"/>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A79" s="3"/>
+      <c r="B79" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A81" t="s">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A80" s="3"/>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81" s="3"/>
+      <c r="B81" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A83" t="s">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A82" s="3"/>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A83" s="3"/>
+      <c r="B83" t="s">
         <v>43</v>
       </c>
-      <c r="B83" s="1" t="s">
+      <c r="C83" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A85" t="s">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A84" s="3"/>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A85" s="3"/>
+      <c r="B85" t="s">
         <v>45</v>
       </c>
-      <c r="B85" s="1" t="s">
+      <c r="C85" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A87" t="s">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A86" s="3"/>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A87" s="3"/>
+      <c r="B87" t="s">
         <v>47</v>
       </c>
-      <c r="B87" s="1" t="s">
+      <c r="C87" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A89" t="s">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A89" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B89" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A91" t="s">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A90" s="3"/>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A91" s="3"/>
+      <c r="B91" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A93" t="s">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A92" s="3"/>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A93" s="3"/>
+      <c r="B93" t="s">
         <v>51</v>
       </c>
-      <c r="B93" s="1" t="s">
+      <c r="C93" s="1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A95" t="s">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A94" s="3"/>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A95" s="3"/>
+      <c r="B95" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A97" t="s">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A96" s="3"/>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A97" s="3"/>
+      <c r="B97" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A99" t="s">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A98" s="3"/>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A99" s="3"/>
+      <c r="B99" t="s">
         <v>56</v>
       </c>
-      <c r="B99" s="1" t="s">
+      <c r="C99" s="1" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A101" t="s">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A100" s="3"/>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A101" s="3"/>
+      <c r="B101" t="s">
         <v>57</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="A61:A73"/>
+    <mergeCell ref="A75:A87"/>
+    <mergeCell ref="A89:A101"/>
+    <mergeCell ref="A1:A15"/>
+    <mergeCell ref="A17:A31"/>
+    <mergeCell ref="A33:A45"/>
+    <mergeCell ref="A47:A59"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
